--- a/biology/Botanique/Craterellus_aureus/Craterellus_aureus.xlsx
+++ b/biology/Botanique/Craterellus_aureus/Craterellus_aureus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craterellus aureus est une espèce de champignons du genre Craterellus, de la famille des Cantharellaceae. Cette espèce comestible, décrite depuis Hong-Kong, est présente au Japon, à Taïwan, au Vietnam et au Laos ainsi qu'au Congo et au Gabon[3],[4].
-Craterellus aureus est représenté par un carpophore de 4 à 10 cm de diamètre en entonnoir jaune orange infundibuliforme et décurvé. L'hymenium est décurrent et orange. Les pieds sont égaux, de 1.5 à 2.5 cm sur 0.5 à 1 cm. Les spores sont elliptiques, mesurant de 7 à 9 sur 5 à 7 μm. Les cystides sont invisibles et les basides, portant quatre stérigmates, mesurent de 50 à 75 par 6 à 8 μm[2],[5],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craterellus aureus est une espèce de champignons du genre Craterellus, de la famille des Cantharellaceae. Cette espèce comestible, décrite depuis Hong-Kong, est présente au Japon, à Taïwan, au Vietnam et au Laos ainsi qu'au Congo et au Gabon,.
+Craterellus aureus est représenté par un carpophore de 4 à 10 cm de diamètre en entonnoir jaune orange infundibuliforme et décurvé. L'hymenium est décurrent et orange. Les pieds sont égaux, de 1.5 à 2.5 cm sur 0.5 à 1 cm. Les spores sont elliptiques, mesurant de 7 à 9 sur 5 à 7 μm. Les cystides sont invisibles et les basides, portant quatre stérigmates, mesurent de 50 à 75 par 6 à 8 μm.
 </t>
         </is>
       </c>
